--- a/va_facility_data_2025-02-20/Grand Forks VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Grand%20Forks%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Grand Forks VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Grand%20Forks%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R679ad73dfcc44bbcacf3bbd3bc4ecca2"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re9f6d7e51f7e43e9aa423709d890ec78"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4ad4497c67944a3cbaaf9fa83723397c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R846057157a8a47479fcaac7cf63852f0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8d274b34464641c790e31166ead868fa"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfe4d99cffd0c44c5a87dbb00faa831b5"/>
   </x:sheets>
 </x:workbook>
 </file>
